--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Code\PassionProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C7B28D-572D-4516-A3C2-161B2AFB5729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C932F-E622-4722-99C1-9E5E4A1356A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -348,124 +348,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2018</v>
-      </c>
-      <c r="G1">
-        <v>2019</v>
-      </c>
-      <c r="H1">
-        <v>2020</v>
-      </c>
-      <c r="I1">
-        <v>2021</v>
-      </c>
-      <c r="J1">
-        <v>2022</v>
-      </c>
-      <c r="K1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
         <v>54</v>
       </c>
-      <c r="D2">
-        <v>57</v>
-      </c>
       <c r="E2">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>57</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>57</v>
-      </c>
-      <c r="I2">
-        <v>57</v>
-      </c>
-      <c r="J2">
-        <v>57</v>
-      </c>
-      <c r="K2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2015</v>
+      </c>
       <c r="B3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2016</v>
+      </c>
       <c r="B4">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2017</v>
+      </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2018</v>
+      </c>
       <c r="B6">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2019</v>
+      </c>
       <c r="B7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2020</v>
+      </c>
       <c r="B8">
-        <v>2</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
